--- a/tests/datasets/numericTest.xlsx
+++ b/tests/datasets/numericTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78F4640-F4AC-644D-B966-FC29ABACBED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5838751-BADA-B245-98E2-F0990EC7B6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43140" yWindow="960" windowWidth="33600" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>This is an Excel workbook for data entry.</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Lookup tables</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>100x</t>
   </si>
 </sst>
 </file>
@@ -819,7 +825,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -845,8 +851,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-19</v>
+      <c r="A2" t="s">
+        <v>35</v>
       </c>
       <c r="B2">
         <v>2345</v>
@@ -862,8 +868,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>100</v>
+      <c r="A3" t="s">
+        <v>36</v>
       </c>
       <c r="B3">
         <v>4322</v>
@@ -913,9 +919,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" t="str">
         <f>IF(ISBLANK('Data Entry'!$A$2), "", 'Data Entry'!$A$2)</f>
-        <v>-19</v>
+        <v>eee</v>
       </c>
       <c r="B2">
         <f>IF(ISBLANK('Data Entry'!$B$2), "", 'Data Entry'!$B$2)</f>
@@ -931,9 +937,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" t="str">
         <f>IF(ISBLANK('Data Entry'!$A$3), "", 'Data Entry'!$A$3)</f>
-        <v>100</v>
+        <v>100x</v>
       </c>
       <c r="B3">
         <f>IF(ISBLANK('Data Entry'!$B$3), "", 'Data Entry'!$B$3)</f>
